--- a/Scrape/Sasi/SasiEyesV2Eng.xlsx
+++ b/Scrape/Sasi/SasiEyesV2Eng.xlsx
@@ -110,7 +110,7 @@
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1716266210-1</t>
+          <t>1717926958-1</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -132,9 +132,7 @@
         <is>
           <t>SASI Girls Can Auto Eyebrow Pencil 0.3g #01 Cool Ash
             4.9 / 5.0
-                                                        ฿59
-                                                    - 50%
-        ฿119</t>
+                                                        ฿119</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
@@ -144,7 +142,7 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2022/0405/16491510367127.jpg</t>
+          <t>https://s2.konvy.com/static/team/2022/0405/16491510367127.jpg.webp</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -154,12 +152,7 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>&lt;li title="#02" onmouseover="relatedOption(71147)" onmouseout="relatedOption(71146)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-auto-eyebrow-pencil-0.3g-02-warm-brown-71147.html')" title="#02" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0308/16782638475651.jpg" alt="#02"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li title="#03" onmouseover="relatedOption(71148)" onmouseout="relatedOption(71146)"&gt;
+          <t>&lt;li title="#03" onmouseover="relatedOption(71148)" onmouseout="relatedOption(71146)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-auto-eyebrow-pencil-0.3g-03-deep-brown-71148.html')" title="#03" class="ky-d ky-pointer"&gt;
                                             &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0308/16782638522027.jpg" alt="#03"&gt;
                                         &lt;/a&gt;
@@ -168,6 +161,11 @@
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-auto-eyebrow-pencil-0.3g-01-cool-ash-71146.html')" title="#01" class="ky-d ky-pointer"&gt;
                                             &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0308/16782638506643.jpg" alt="#01"&gt;
                                         &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li soldout="" title="#02" onmouseover="relatedOption(71147)" onmouseout="relatedOption(71146)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-auto-eyebrow-pencil-0.3g-02-warm-brown-71147.html')" title="#02" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0308/16782638475651.jpg" alt="#02"&gt;
+                                        &lt;/a&gt;
                                     &lt;/li&gt;</t>
         </is>
       </c>
@@ -175,7 +173,7 @@
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1716266213-2</t>
+          <t>1717926960-2</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -194,6 +192,129 @@
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>SASI Girls Can Auto Eyebrow Pencil 0.3g #02 Warm Brown
+            4.9 / 5.0
+                                                        ฿119</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.konvy.com/sasi/sasi-girls-can-auto-eyebrow-pencil-0.3g-02-warm-brown-71147.html</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>https://s2.konvy.com/static/team/2022/0405/16491541058365.jpg.webp</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>SASI Girls Can Auto Eyebrow Pencil 0.3g #02 Warm Brown Eyebrows are all in place, don't stutter during the day, long-lasting, waterproof, sweat-proof with a triangular cutting head eyebrow pencil. Perfect corner design from Sasi, easy to write, Define as you want. Comes with an eyebrow brush Helps the eyebrows line up naturally beautiful.</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>&lt;li title="#03" onmouseover="relatedOption(71148)" onmouseout="relatedOption(71147)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-auto-eyebrow-pencil-0.3g-03-deep-brown-71148.html')" title="#03" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0308/16782638522027.jpg" alt="#03"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li soldout="" title="#01" onmouseover="relatedOption(71146)" onmouseout="relatedOption(71147)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-auto-eyebrow-pencil-0.3g-01-cool-ash-71146.html')" title="#01" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0308/16782638506643.jpg" alt="#01"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li class="active" selected="" soldout="" title="#02" onmouseover="relatedOption(71147)" onmouseout="relatedOption(71147)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-auto-eyebrow-pencil-0.3g-02-warm-brown-71147.html')" title="#02" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0308/16782638475651.jpg" alt="#02"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>1717926962-3</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.konvy.com/brand/sasi/?cateId=1098</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>https://s2.konvy.com/static/category/2020/0416/15870259543485_240x240.jpg</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>Eye Makeup</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>SASI Girls Can Be Unique Eyeshadow Palette 6g #02 Unique Orange
+            4.7 / 5.0
+                                                        ฿89
+                                                    - 44%
+        ฿159</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.konvy.com/sasi/sasi-girls-can-be-unique-eyeshadow-palette-6g-02-unique-orange-71150.html</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>https://s2.konvy.com/static/team/2022/0405/16491541985944.jpg.webp</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>SASI Girls Can Be Unique Eyeshadow Palette 6g #02 Unique Orange 4 color 3 texture eyeshadow palette from Sasi, easy to carry, stand out and be yourself in every look. day and night There are both matte, shimmer and jelly mixed with glitter.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;li title="#01" onmouseover="relatedOption(71149)" onmouseout="relatedOption(71150)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-be-unique-eyeshadow-palette-6g-01-unique-pink-71149.html')" title="#01" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0330/16801666097798.jpg" alt="#01"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li class="active" selected="" title="#02" onmouseover="relatedOption(71150)" onmouseout="relatedOption(71150)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-be-unique-eyeshadow-palette-6g-02-unique-orange-71150.html')" title="#02" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0330/16801666048816.jpg" alt="#02"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>1717926965-4</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.konvy.com/brand/sasi/?cateId=1098</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>https://s2.konvy.com/static/category/2020/0416/15870259543485_240x240.jpg</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Eye Makeup</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
         <is>
           <t>SASI Girls Can Be Unique Eyeshadow Palette 6g #01 Unique Pink
             4.8 / 5.0
@@ -202,22 +323,22 @@
         ฿159</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F5" s="1" t="inlineStr">
         <is>
           <t>https://www.konvy.com/sasi/sasi-girls-can-be-unique-eyeshadow-palette-6g-01-unique-pink-71149.html</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>https://s2.konvy.com/static/team/2022/0405/16491541651133.jpg.webp</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
         <is>
           <t>SASI Girls Can Be Unique Eyeshadow Palette 6g #01 Unique Pink 4 color 3 texture eyeshadow palette from Sasi, easy to carry, stand out and be yourself in every look. day and night There are both matte, shimmer and jelly mixed with glitter.</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I5" s="1" t="inlineStr">
         <is>
           <t>&lt;li class="active" selected="" title="#01" onmouseover="relatedOption(71149)" onmouseout="relatedOption(71149)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-be-unique-eyeshadow-palette-6g-01-unique-pink-71149.html')" title="#01" class="ky-d ky-pointer"&gt;
@@ -232,112 +353,113 @@
         </is>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>1716266215-3</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.konvy.com/brand/sasi/?cateId=1098</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>https://s2.konvy.com/static/category/2020/0416/15870259543485_240x240.jpg</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>Eye Makeup</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>SASI Girls Can Be Unique Eyeshadow Palette 6g #02 Unique Orange
-            4.7 / 5.0
-                                                        ฿89
-                                                    - 44%
-        ฿159</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.konvy.com/sasi/sasi-girls-can-be-unique-eyeshadow-palette-6g-02-unique-orange-71150.html</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>https://s2.konvy.com/static/team/2022/0405/16491541985944.jpg</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>SASI Girls Can Be Unique Eyeshadow Palette 6g #02 Unique Orange 4 color 3 texture eyeshadow palette from Sasi, easy to carry, stand out and be yourself in every look. day and night There are both matte, shimmer and jelly mixed with glitter.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>&lt;li title="#01" onmouseover="relatedOption(71149)" onmouseout="relatedOption(71150)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-be-unique-eyeshadow-palette-6g-01-unique-pink-71149.html')" title="#01" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0330/16801666097798.jpg" alt="#01"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li class="active" selected="" title="#02" onmouseover="relatedOption(71150)" onmouseout="relatedOption(71150)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-be-unique-eyeshadow-palette-6g-02-unique-orange-71150.html')" title="#02" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0330/16801666048816.jpg" alt="#02"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>1716266217-4</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.konvy.com/brand/sasi/?cateId=1098</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>https://s2.konvy.com/static/category/2020/0416/15870259543485_240x240.jpg</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>Eye Makeup</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>1717926967-5</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.konvy.com/brand/sasi/?cateId=1098</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>https://s2.konvy.com/static/category/2020/0416/15870259543485_240x240.jpg</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>Eye Makeup</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>SASI Girls Can Auto Eyebrow Pencil 0.3g #03 Deep Brown
+            4.8 / 5.0
+                                                        ฿119</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.konvy.com/sasi/sasi-girls-can-auto-eyebrow-pencil-0.3g-03-deep-brown-71148.html</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>https://s2.konvy.com/static/team/2022/0405/16491541358205.jpg.webp</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>SASI Girls Can Auto Eyebrow Pencil 0.3g #03 Deep Brown Eyebrows are all in place, do not stub during the day, long-lasting, waterproof, sweat-proof with a triangular cutting head eyebrow pencil. Perfect corner design from Sasi, easy to write, Define as you want. Comes with an eyebrow brush Helps the eyebrows line up naturally beautiful.</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>&lt;li class="active" selected="" title="#03" onmouseover="relatedOption(71148)" onmouseout="relatedOption(71148)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-auto-eyebrow-pencil-0.3g-03-deep-brown-71148.html')" title="#03" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0308/16782638522027.jpg" alt="#03"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li soldout="" title="#01" onmouseover="relatedOption(71146)" onmouseout="relatedOption(71148)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-auto-eyebrow-pencil-0.3g-01-cool-ash-71146.html')" title="#01" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0308/16782638506643.jpg" alt="#01"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li soldout="" title="#02" onmouseover="relatedOption(71147)" onmouseout="relatedOption(71148)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-auto-eyebrow-pencil-0.3g-02-warm-brown-71147.html')" title="#02" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0308/16782638475651.jpg" alt="#02"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>1717926969-6</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.konvy.com/brand/sasi/?cateId=1098</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>https://s2.konvy.com/static/category/2020/0416/15870259543485_240x240.jpg</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>Eye Makeup</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
         <is>
           <t>SASI Brow - to - be Auto Pencil 0.1g #10 Light Brown
             5.0 / 5.0
-                                                        ฿69
-                                                    - 22%
-        ฿89</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
+                                                        ฿89</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>https://www.konvy.com/sasi/sasi-brow---to---be-auto-pencil-0.1g-10-light-brown-44467.html</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>https://s2.konvy.com/static/team/2024/0101/17040443058822.jpg</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>https://s2.konvy.com/static/team/2024/0101/17040443058822.jpg.webp</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
         <is>
           <t>SASI Brow - to - be Auto Pencil 0.1g #10 Light Brown no matter what eyebrow shape. It can be written exactly with a soft-touch eyebrow pencil from Sasi, clear, natural-looking color, waterproof, sweat-proof, long-lasting, with a small slender pencil tip. Makes it easy to write and get a beautiful eyebrow shape. Comes with a brush head that helps spread the eyebrows to look smoother.</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="I7" s="1" t="inlineStr">
         <is>
           <t>&lt;li class="active" selected="" title="#10" onmouseover="relatedOption(44467)" onmouseout="relatedOption(44467)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-brow---to---be-auto-pencil-0.1g-10-light-brown-44467.html')" title="#10" class="ky-d ky-pointer"&gt;
@@ -352,140 +474,10 @@
         </is>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>1716266220-5</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.konvy.com/brand/sasi/?cateId=1098</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>https://s2.konvy.com/static/category/2020/0416/15870259543485_240x240.jpg</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>Eye Makeup</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>SASI Girls Can Auto Eyebrow Pencil 0.3g #03 Deep Brown
-            4.8 / 5.0
-                                                        ฿59
-                                                    - 50%
-        ฿119</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.konvy.com/sasi/sasi-girls-can-auto-eyebrow-pencil-0.3g-03-deep-brown-71148.html</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>SASI Girls Can Auto Eyebrow Pencil 0.3g #03 Deep Brown Eyebrows are all in place, do not stub during the day, long-lasting, waterproof, sweat-proof with a triangular cutting head eyebrow pencil. Perfect corner design from Sasi, easy to write, Define as you want. Comes with an eyebrow brush Helps the eyebrows line up naturally beautiful.</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
-        <is>
-          <t>&lt;li title="#02" onmouseover="relatedOption(71147)" onmouseout="relatedOption(71148)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-auto-eyebrow-pencil-0.3g-02-warm-brown-71147.html')" title="#02" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0308/16782638475651.jpg" alt="#02"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li class="active" selected="" title="#03" onmouseover="relatedOption(71148)" onmouseout="relatedOption(71148)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-auto-eyebrow-pencil-0.3g-03-deep-brown-71148.html')" title="#03" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0308/16782638522027.jpg" alt="#03"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li soldout="" title="#01" onmouseover="relatedOption(71146)" onmouseout="relatedOption(71148)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-auto-eyebrow-pencil-0.3g-01-cool-ash-71146.html')" title="#01" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0308/16782638506643.jpg" alt="#01"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>1716266222-6</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.konvy.com/brand/sasi/?cateId=1098</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>https://s2.konvy.com/static/category/2020/0416/15870259543485_240x240.jpg</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>Eye Makeup</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>SASI Girls Can Auto Eyebrow Pencil 0.3g #02 Warm Brown
-            4.9 / 5.0
-                                                        ฿59
-                                                    - 50%
-        ฿119</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.konvy.com/sasi/sasi-girls-can-auto-eyebrow-pencil-0.3g-02-warm-brown-71147.html</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>https://s2.konvy.com/static/team/2022/0405/16491541058365.jpg</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>SASI Girls Can Auto Eyebrow Pencil 0.3g #02 Warm Brown Eyebrows are all in place, don't stutter during the day, long-lasting, waterproof, sweat-proof with a triangular cutting head eyebrow pencil. Perfect corner design from Sasi, easy to write, Define as you want. Comes with an eyebrow brush Helps the eyebrows line up naturally beautiful.</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
-        <is>
-          <t>&lt;li class="active" selected="" title="#02" onmouseover="relatedOption(71147)" onmouseout="relatedOption(71147)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-auto-eyebrow-pencil-0.3g-02-warm-brown-71147.html')" title="#02" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0308/16782638475651.jpg" alt="#02"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li title="#03" onmouseover="relatedOption(71148)" onmouseout="relatedOption(71147)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-auto-eyebrow-pencil-0.3g-03-deep-brown-71148.html')" title="#03" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0308/16782638522027.jpg" alt="#03"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li soldout="" title="#01" onmouseover="relatedOption(71146)" onmouseout="relatedOption(71147)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-auto-eyebrow-pencil-0.3g-01-cool-ash-71146.html')" title="#01" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0308/16782638506643.jpg" alt="#01"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;</t>
-        </is>
-      </c>
-    </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>1716266225-7</t>
+          <t>1717926972-7</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -507,9 +499,7 @@
         <is>
           <t>SASI Brow - to - be Auto Pencil 0.1g #20 Dark Brown
             4.9 / 5.0
-                                                        ฿69
-                                                    - 22%
-        ฿89</t>
+                                                        ฿89</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr">
@@ -519,7 +509,7 @@
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2024/0101/17040443208823.jpg</t>
+          <t>https://s2.konvy.com/static/team/2024/0101/17040443208823.jpg.webp</t>
         </is>
       </c>
       <c r="H8" s="1" t="inlineStr">
